--- a/mbs-perturbation/bottleneck/svm/bottleneck-svm-default-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/bottleneck-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6368421052631579</v>
+        <v>0.9788249694002448</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5694002447980416</v>
+        <v>0.8083231334149327</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.6153846153846153</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4589147286821706</v>
+        <v>0.9803617571059432</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E5" t="n">
-        <v>0.675968992248062</v>
+        <v>0.9124031007751938</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3018087855297157</v>
+        <v>0.8997416020671835</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.4614400660202187</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.3631578947368421</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.2376533641796799</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5285869713042296</v>
+        <v>0.9159309125526995</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/bottleneck/svm/bottleneck-svm-default-results.xlsx
+++ b/mbs-perturbation/bottleneck/svm/bottleneck-svm-default-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1450381679389313</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2533333333333334</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9788249694002448</v>
+        <v>0.6853241296518607</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1621621621621622</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8083231334149327</v>
+        <v>0.9579831932773109</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6153846153846153</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9803617571059432</v>
+        <v>0.9481146304675716</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9124031007751938</v>
+        <v>0.7167420814479638</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8997416020671835</v>
+        <v>0.983107088989442</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4614400660202187</v>
+        <v>0.2306122448979592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3631578947368421</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2376533641796799</v>
+        <v>0.1283643892339545</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9159309125526995</v>
+        <v>0.8582542247668299</v>
       </c>
     </row>
   </sheetData>
